--- a/results_all/Screener_Analysis_All_2025-12-15.xlsx
+++ b/results_all/Screener_Analysis_All_2025-12-15.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7020" uniqueCount="2472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7020" uniqueCount="2471">
   <si>
     <t>Symbol</t>
   </si>
@@ -119,7 +119,7 @@
     <t>Face Value</t>
   </si>
   <si>
-    <t>₹33,304Cr.</t>
+    <t>₹33,312Cr.</t>
   </si>
   <si>
     <t>₹1,774</t>
@@ -2414,7 +2414,7 @@
     <t>APLLTD</t>
   </si>
   <si>
-    <t>₹17,008Cr.</t>
+    <t>₹17,003Cr.</t>
   </si>
   <si>
     <t>₹865</t>
@@ -3338,10 +3338,10 @@
     <t>DBCORP</t>
   </si>
   <si>
-    <t>₹4,620Cr.</t>
-  </si>
-  <si>
-    <t>₹259</t>
+    <t>₹4,597Cr.</t>
+  </si>
+  <si>
+    <t>₹258</t>
   </si>
   <si>
     <t>₹334/189</t>
@@ -3353,7 +3353,7 @@
     <t>₹129</t>
   </si>
   <si>
-    <t>4.62%</t>
+    <t>4.64%</t>
   </si>
   <si>
     <t>21.0%</t>
@@ -4061,10 +4061,10 @@
     <t>INTENTECH</t>
   </si>
   <si>
-    <t>₹271Cr.</t>
-  </si>
-  <si>
-    <t>₹115</t>
+    <t>₹283Cr.</t>
+  </si>
+  <si>
+    <t>₹120</t>
   </si>
   <si>
     <t>₹150/79.1</t>
@@ -4073,7 +4073,7 @@
     <t>₹53.8</t>
   </si>
   <si>
-    <t>0.85%</t>
+    <t>0.81%</t>
   </si>
   <si>
     <t>8.45%</t>
@@ -4586,9 +4586,6 @@
     <t>78.45%</t>
   </si>
   <si>
-    <t>0.81%</t>
-  </si>
-  <si>
     <t>18104</t>
   </si>
   <si>
@@ -4673,16 +4670,16 @@
     <t>MUKTAARTS</t>
   </si>
   <si>
-    <t>₹142Cr.</t>
-  </si>
-  <si>
-    <t>₹62.7</t>
+    <t>₹139Cr.</t>
+  </si>
+  <si>
+    <t>₹61.4</t>
   </si>
   <si>
     <t>₹102/56.0</t>
   </si>
   <si>
-    <t>16.6</t>
+    <t>16.2</t>
   </si>
   <si>
     <t>₹87.8</t>
@@ -5585,16 +5582,16 @@
     <t>REFEX</t>
   </si>
   <si>
-    <t>₹4,005Cr.</t>
-  </si>
-  <si>
-    <t>₹292</t>
+    <t>₹3,988Cr.</t>
+  </si>
+  <si>
+    <t>₹291</t>
   </si>
   <si>
     <t>₹535/212</t>
   </si>
   <si>
-    <t>19.8</t>
+    <t>19.7</t>
   </si>
   <si>
     <t>₹103</t>
@@ -6452,7 +6449,7 @@
     <t>TTML</t>
   </si>
   <si>
-    <t>₹9,540Cr.</t>
+    <t>₹9,532Cr.</t>
   </si>
   <si>
     <t>₹48.8</t>
@@ -8008,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8039,7 +8036,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8047,7 +8044,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8055,7 +8052,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8068,7 +8065,7 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8084,7 +8081,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8115,12 +8112,12 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -8180,7 +8177,7 @@
         <v>399</v>
       </c>
       <c r="C24" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="D24" t="s">
         <v>1023</v>
@@ -8204,13 +8201,13 @@
         <v>1248</v>
       </c>
       <c r="K24" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="L24" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="M24" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="N24" t="s">
         <v>400</v>
@@ -8230,7 +8227,7 @@
         <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="F25" t="s">
         <v>993</v>
@@ -8245,13 +8242,13 @@
         <v>1488</v>
       </c>
       <c r="J25" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="K25" t="s">
         <v>1143</v>
       </c>
       <c r="L25" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="M25" t="s">
         <v>273</v>
@@ -8286,22 +8283,22 @@
         <v>1217</v>
       </c>
       <c r="I26" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="J26" t="s">
         <v>273</v>
       </c>
       <c r="K26" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="L26" t="s">
         <v>412</v>
       </c>
       <c r="M26" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="N26" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -8312,7 +8309,7 @@
         <v>1469</v>
       </c>
       <c r="C27" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D27" t="s">
         <v>995</v>
@@ -8330,19 +8327,19 @@
         <v>1469</v>
       </c>
       <c r="I27" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="J27" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="K27" t="s">
         <v>962</v>
       </c>
       <c r="L27" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="M27" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="N27" t="s">
         <v>258</v>
@@ -8353,7 +8350,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="C28" t="s">
         <v>825</v>
@@ -8386,7 +8383,7 @@
         <v>825</v>
       </c>
       <c r="M28" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="N28" t="s">
         <v>825</v>
@@ -8397,40 +8394,40 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="C29" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D29" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="E29" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="F29" t="s">
         <v>1025</v>
       </c>
       <c r="G29" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="H29" t="s">
         <v>1204</v>
       </c>
       <c r="I29" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="J29" t="s">
         <v>162</v>
       </c>
       <c r="K29" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="L29" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="M29" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="N29" t="s">
         <v>1150</v>
@@ -8447,7 +8444,7 @@
         <v>1228</v>
       </c>
       <c r="D30" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E30" t="s">
         <v>425</v>
@@ -8459,7 +8456,7 @@
         <v>1228</v>
       </c>
       <c r="H30" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="I30" t="s">
         <v>1127</v>
@@ -8474,10 +8471,10 @@
         <v>998</v>
       </c>
       <c r="M30" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="N30" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -8485,43 +8482,43 @@
         <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="C31" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D31" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="E31" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="F31" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="G31" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="H31" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="I31" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="J31" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="K31" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="L31" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="M31" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="N31" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -8573,43 +8570,43 @@
         <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="C33" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D33" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="E33" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="F33" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="G33" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="H33" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="I33" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="J33" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="K33" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="L33" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="M33" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="N33" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -8617,43 +8614,43 @@
         <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="C34" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="D34" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="E34" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="F34" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="G34" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="H34" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="I34" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="J34" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K34" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="L34" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="M34" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="N34" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -8715,43 +8712,43 @@
         <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="C39" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D39" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="E39" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="F39" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="G39" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="H39" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="I39" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="J39" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="K39" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="L39" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="M39" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="N39" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -8759,40 +8756,40 @@
         <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="C40" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="D40" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="E40" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="F40" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="G40" t="s">
         <v>1168</v>
       </c>
       <c r="H40" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="I40" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="J40" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="K40" t="s">
         <v>1168</v>
       </c>
       <c r="L40" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="M40" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="N40" t="s">
         <v>1234</v>
@@ -8803,22 +8800,22 @@
         <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="C41" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D41" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="E41" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="F41" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="G41" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="H41" t="s">
         <v>921</v>
@@ -8827,7 +8824,7 @@
         <v>1197</v>
       </c>
       <c r="J41" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="K41" t="s">
         <v>320</v>
@@ -8836,7 +8833,7 @@
         <v>137</v>
       </c>
       <c r="M41" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="N41" t="s">
         <v>1149</v>
@@ -8862,10 +8859,10 @@
         <v>325</v>
       </c>
       <c r="G42" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="H42" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="I42" t="s">
         <v>995</v>
@@ -8900,19 +8897,19 @@
         <v>893</v>
       </c>
       <c r="E43" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="F43" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="G43" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="H43" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="I43" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="J43" t="s">
         <v>947</v>
@@ -8938,40 +8935,40 @@
         <v>1121</v>
       </c>
       <c r="C44" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D44" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="E44" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="F44" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="G44" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="H44" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="I44" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="J44" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="K44" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="L44" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="M44" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="N44" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -8985,16 +8982,16 @@
         <v>928</v>
       </c>
       <c r="D45" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="E45" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="F45" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G45" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="H45" t="s">
         <v>996</v>
@@ -9006,10 +9003,10 @@
         <v>1161</v>
       </c>
       <c r="K45" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="L45" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="M45" t="s">
         <v>1230</v>
@@ -9023,43 +9020,43 @@
         <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="C46" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D46" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="E46" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="F46" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="G46" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="H46" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="I46" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="J46" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="K46" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="L46" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="M46" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="N46" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -9108,43 +9105,43 @@
         <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="C48" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D48" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="E48" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="F48" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="G48" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="H48" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="I48" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="J48" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="K48" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="L48" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="M48" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="N48" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -9152,43 +9149,43 @@
         <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C49" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D49" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="E49" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="F49" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="G49" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="H49" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="I49" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="J49" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="K49" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="L49" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="M49" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="N49" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -9250,7 +9247,7 @@
         <v>349</v>
       </c>
       <c r="B54" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -9274,7 +9271,7 @@
         <v>352</v>
       </c>
       <c r="B57" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -10254,40 +10251,40 @@
         <v>390</v>
       </c>
       <c r="B106" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C106" t="s">
         <v>2273</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>2274</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>2275</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>2276</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>2277</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>2278</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>2279</v>
       </c>
-      <c r="I106" t="s">
-        <v>2280</v>
-      </c>
       <c r="J106" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="K106" t="s">
+        <v>2283</v>
+      </c>
+      <c r="L106" t="s">
         <v>2284</v>
       </c>
-      <c r="L106" t="s">
+      <c r="M106" t="s">
         <v>2285</v>
-      </c>
-      <c r="M106" t="s">
-        <v>2286</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -10310,25 +10307,25 @@
         <v>674</v>
       </c>
       <c r="G107" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="H107" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="I107" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="J107" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="K107" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="L107" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="M107" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -10382,40 +10379,40 @@
         <v>433</v>
       </c>
       <c r="B111" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="C111" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="D111" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="E111" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="F111" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="G111" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H111" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="I111" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="J111" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="K111" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L111" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="M111" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -10423,40 +10420,40 @@
         <v>434</v>
       </c>
       <c r="B112" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="C112" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D112" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="E112" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="F112" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="G112" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="H112" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="I112" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="J112" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="K112" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="L112" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="M112" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -10473,31 +10470,31 @@
         <v>727</v>
       </c>
       <c r="E113" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="F113" t="s">
         <v>727</v>
       </c>
       <c r="G113" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="H113" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="I113" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="J113" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="K113" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="L113" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="M113" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -10505,40 +10502,40 @@
         <v>437</v>
       </c>
       <c r="B114" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="C114" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D114" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E114" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="F114" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="G114" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="H114" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="I114" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="J114" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="K114" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="L114" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="M114" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -10546,40 +10543,40 @@
         <v>438</v>
       </c>
       <c r="B115" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="C115" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D115" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="E115" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="F115" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="G115" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="H115" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="I115" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="J115" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="K115" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="L115" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="M115" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -10627,34 +10624,34 @@
         <v>433</v>
       </c>
       <c r="B119" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C119" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="D119" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="E119" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="F119" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="G119" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H119" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="I119" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="J119" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="K119" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -10662,10 +10659,10 @@
         <v>434</v>
       </c>
       <c r="B120" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C120" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D120" t="s">
         <v>703</v>
@@ -10677,19 +10674,19 @@
         <v>1516</v>
       </c>
       <c r="G120" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="H120" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="I120" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="J120" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="K120" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -10700,7 +10697,7 @@
         <v>727</v>
       </c>
       <c r="C121" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D121" t="s">
         <v>727</v>
@@ -10718,13 +10715,13 @@
         <v>1515</v>
       </c>
       <c r="I121" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="J121" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="K121" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -10732,13 +10729,13 @@
         <v>437</v>
       </c>
       <c r="B122" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="C122" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D122" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="E122" t="s">
         <v>587</v>
@@ -10747,19 +10744,19 @@
         <v>587</v>
       </c>
       <c r="G122" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="H122" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="I122" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="J122" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="K122" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -10767,34 +10764,34 @@
         <v>438</v>
       </c>
       <c r="B123" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="C123" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D123" t="s">
+        <v>2331</v>
+      </c>
+      <c r="E123" t="s">
         <v>2332</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>2333</v>
       </c>
-      <c r="F123" t="s">
-        <v>2334</v>
-      </c>
       <c r="G123" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="H123" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="I123" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="J123" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="K123" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
   </sheetData>
@@ -10815,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10846,7 +10843,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10854,7 +10851,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10862,7 +10859,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -10870,7 +10867,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -10878,7 +10875,7 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -10886,7 +10883,7 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10894,7 +10891,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -10902,7 +10899,7 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10925,12 +10922,12 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -10987,43 +10984,43 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="C24" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D24" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="E24" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="F24" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="G24" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="H24" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="I24" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="J24" t="s">
         <v>1428</v>
       </c>
       <c r="K24" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="L24" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="M24" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="N24" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -11031,43 +11028,43 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="C25" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D25" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="E25" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="F25" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="G25" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="H25" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="I25" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="J25" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="K25" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="L25" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="M25" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="N25" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -11075,43 +11072,43 @@
         <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="C26" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D26" t="s">
         <v>1473</v>
       </c>
       <c r="E26" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="F26" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="G26" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H26" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="I26" t="s">
         <v>1440</v>
       </c>
       <c r="J26" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="K26" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="L26" t="s">
         <v>585</v>
       </c>
       <c r="M26" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="N26" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -11119,43 +11116,43 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="C27" t="s">
         <v>1313</v>
       </c>
       <c r="D27" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="E27" t="s">
         <v>1292</v>
       </c>
       <c r="F27" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="G27" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="H27" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="I27" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="J27" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="K27" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="L27" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="M27" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="N27" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -11163,7 +11160,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C28" t="s">
         <v>611</v>
@@ -11178,7 +11175,7 @@
         <v>540</v>
       </c>
       <c r="G28" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="H28" t="s">
         <v>550</v>
@@ -11275,13 +11272,13 @@
         <v>583</v>
       </c>
       <c r="J30" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="K30" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="L30" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="M30" t="s">
         <v>645</v>
@@ -11295,43 +11292,43 @@
         <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C31" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D31" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="E31" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="F31" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="G31" t="s">
         <v>669</v>
       </c>
       <c r="H31" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="I31" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="J31" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="K31" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="L31" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="M31" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="N31" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -11339,43 +11336,43 @@
         <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="C32" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D32" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="E32" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F32" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="G32" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="H32" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="I32" t="s">
         <v>644</v>
       </c>
       <c r="J32" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="K32" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="L32" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="M32" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="N32" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -11386,40 +11383,40 @@
         <v>1458</v>
       </c>
       <c r="C33" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D33" t="s">
         <v>1439</v>
       </c>
       <c r="E33" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="F33" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="G33" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H33" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="I33" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="J33" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="K33" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="L33" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="M33" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="N33" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -11427,43 +11424,43 @@
         <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="C34" t="s">
         <v>1460</v>
       </c>
       <c r="D34" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="E34" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="F34" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="G34" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="H34" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="I34" t="s">
         <v>596</v>
       </c>
       <c r="J34" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="K34" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="L34" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="M34" t="s">
         <v>648</v>
       </c>
       <c r="N34" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -11528,7 +11525,7 @@
         <v>1258</v>
       </c>
       <c r="C39" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D39" t="s">
         <v>292</v>
@@ -11543,7 +11540,7 @@
         <v>1009</v>
       </c>
       <c r="H39" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="I39" t="s">
         <v>832</v>
@@ -11552,7 +11549,7 @@
         <v>1139</v>
       </c>
       <c r="K39" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="L39" t="s">
         <v>1144</v>
@@ -11877,13 +11874,13 @@
         <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C47" t="s">
         <v>995</v>
       </c>
       <c r="D47" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="E47" t="s">
         <v>999</v>
@@ -11898,13 +11895,13 @@
         <v>104</v>
       </c>
       <c r="I47" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="J47" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="K47" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="L47" t="s">
         <v>316</v>
@@ -11965,40 +11962,40 @@
         <v>1413</v>
       </c>
       <c r="C49" t="s">
+        <v>2419</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E49" t="s">
         <v>2420</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1703</v>
-      </c>
-      <c r="E49" t="s">
-        <v>2421</v>
       </c>
       <c r="F49" t="s">
         <v>586</v>
       </c>
       <c r="G49" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="H49" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="I49" t="s">
+        <v>2423</v>
+      </c>
+      <c r="J49" t="s">
         <v>2424</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
+        <v>2076</v>
+      </c>
+      <c r="L49" t="s">
         <v>2425</v>
       </c>
-      <c r="K49" t="s">
-        <v>2077</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
+        <v>1720</v>
+      </c>
+      <c r="N49" t="s">
         <v>2426</v>
-      </c>
-      <c r="M49" t="s">
-        <v>1721</v>
-      </c>
-      <c r="N49" t="s">
-        <v>2427</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -12006,7 +12003,7 @@
         <v>218</v>
       </c>
       <c r="B50" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="C50" t="s">
         <v>239</v>
@@ -12024,7 +12021,7 @@
         <v>100</v>
       </c>
       <c r="H50" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="I50" t="s">
         <v>131</v>
@@ -12174,7 +12171,7 @@
         <v>360</v>
       </c>
       <c r="B71" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -12999,7 +12996,7 @@
         <v>900</v>
       </c>
       <c r="K102" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="L102" t="s">
         <v>1152</v>
@@ -13057,7 +13054,7 @@
         <v>1017</v>
       </c>
       <c r="C104" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D104" t="s">
         <v>1022</v>
@@ -13072,16 +13069,16 @@
         <v>1143</v>
       </c>
       <c r="H104" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="I104" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="J104" t="s">
         <v>856</v>
       </c>
       <c r="K104" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="L104" t="s">
         <v>424</v>
@@ -13098,7 +13095,7 @@
         <v>1478</v>
       </c>
       <c r="C105" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D105" t="s">
         <v>133</v>
@@ -13110,25 +13107,25 @@
         <v>818</v>
       </c>
       <c r="G105" t="s">
+        <v>2431</v>
+      </c>
+      <c r="H105" t="s">
         <v>2432</v>
       </c>
-      <c r="H105" t="s">
-        <v>2433</v>
-      </c>
       <c r="I105" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="J105" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="K105" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="L105" t="s">
         <v>1118</v>
       </c>
       <c r="M105" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -13142,34 +13139,34 @@
         <v>836</v>
       </c>
       <c r="D106" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="E106" t="s">
         <v>1005</v>
       </c>
       <c r="F106" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="G106" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="H106" t="s">
         <v>415</v>
       </c>
       <c r="I106" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="J106" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="K106" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="L106" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="M106" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -13264,40 +13261,40 @@
         <v>433</v>
       </c>
       <c r="B111" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="C111" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D111" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="E111" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="F111" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="G111" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="H111" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="I111" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="J111" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="K111" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="L111" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="M111" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -13346,40 +13343,40 @@
         <v>437</v>
       </c>
       <c r="B113" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="C113" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D113" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E113" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="F113" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="G113" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="H113" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="I113" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="J113" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="K113" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="L113" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="M113" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -13387,40 +13384,40 @@
         <v>438</v>
       </c>
       <c r="B114" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C114" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D114" t="s">
         <v>2447</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>2448</v>
       </c>
-      <c r="E114" t="s">
-        <v>2449</v>
-      </c>
       <c r="F114" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G114" t="s">
         <v>2451</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>2452</v>
       </c>
-      <c r="H114" t="s">
-        <v>2453</v>
-      </c>
       <c r="I114" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="J114" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="K114" t="s">
+        <v>2459</v>
+      </c>
+      <c r="L114" t="s">
         <v>2460</v>
       </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
         <v>2461</v>
-      </c>
-      <c r="M114" t="s">
-        <v>2462</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -13468,34 +13465,34 @@
         <v>433</v>
       </c>
       <c r="B118" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="C118" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D118" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="E118" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F118" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="G118" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="H118" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="I118" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="J118" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="K118" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -13503,34 +13500,34 @@
         <v>437</v>
       </c>
       <c r="B119" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="C119" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D119" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="E119" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="F119" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="G119" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="H119" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="I119" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="J119" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="K119" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -13538,34 +13535,34 @@
         <v>438</v>
       </c>
       <c r="B120" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C120" t="s">
         <v>2465</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>2466</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>2467</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>2468</v>
       </c>
-      <c r="F120" t="s">
-        <v>2469</v>
-      </c>
       <c r="G120" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="H120" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="I120" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="J120" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="K120" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
   </sheetData>
@@ -25393,7 +25390,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>424</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -27775,10 +27772,10 @@
         <v>1514</v>
       </c>
       <c r="L117" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="M117" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -27819,7 +27816,7 @@
         <v>1515</v>
       </c>
       <c r="M118" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -27860,7 +27857,7 @@
         <v>527</v>
       </c>
       <c r="M119" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -27898,10 +27895,10 @@
         <v>1519</v>
       </c>
       <c r="L120" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="M120" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -27936,13 +27933,13 @@
         <v>527</v>
       </c>
       <c r="K121" t="s">
-        <v>1520</v>
+        <v>1349</v>
       </c>
       <c r="L121" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="M121" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -27977,13 +27974,13 @@
         <v>1518</v>
       </c>
       <c r="K122" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="L122" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="M122" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -28031,19 +28028,19 @@
         <v>433</v>
       </c>
       <c r="B126" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="C126" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D126" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E126" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F126" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G126" t="s">
         <v>1495</v>
@@ -28058,7 +28055,7 @@
         <v>1514</v>
       </c>
       <c r="K126" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -28093,7 +28090,7 @@
         <v>1515</v>
       </c>
       <c r="K127" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -28104,7 +28101,7 @@
         <v>527</v>
       </c>
       <c r="C128" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D128" t="s">
         <v>527</v>
@@ -28128,7 +28125,7 @@
         <v>1516</v>
       </c>
       <c r="K128" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -28136,19 +28133,19 @@
         <v>437</v>
       </c>
       <c r="B129" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C129" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D129" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E129" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F129" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="G129" t="s">
         <v>1496</v>
@@ -28163,7 +28160,7 @@
         <v>1519</v>
       </c>
       <c r="K129" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -28195,10 +28192,10 @@
         <v>527</v>
       </c>
       <c r="J130" t="s">
-        <v>1520</v>
+        <v>1349</v>
       </c>
       <c r="K130" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -28206,22 +28203,22 @@
         <v>438</v>
       </c>
       <c r="B131" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C131" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D131" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E131" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F131" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G131" t="s">
         <v>1546</v>
-      </c>
-      <c r="G131" t="s">
-        <v>1547</v>
       </c>
       <c r="H131" t="s">
         <v>1498</v>
@@ -28230,10 +28227,10 @@
         <v>1507</v>
       </c>
       <c r="J131" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="K131" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
   </sheetData>
@@ -28254,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -28285,7 +28282,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -28293,7 +28290,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -28301,7 +28298,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -28309,7 +28306,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -28317,7 +28314,7 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -28333,7 +28330,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -28341,7 +28338,7 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -28349,7 +28346,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -28364,7 +28361,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -28374,27 +28371,27 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -28451,43 +28448,43 @@
         <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C29" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D29" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E29" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F29" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G29" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I29" t="s">
         <v>1602</v>
       </c>
-      <c r="H29" t="s">
-        <v>1610</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1603</v>
-      </c>
       <c r="J29" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="K29" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="L29" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="M29" t="s">
         <v>1414</v>
       </c>
       <c r="N29" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -28495,43 +28492,43 @@
         <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C30" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D30" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="E30" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="F30" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="G30" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H30" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="I30" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="J30" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="K30" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="L30" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="M30" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="N30" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -28539,7 +28536,7 @@
         <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C31" t="s">
         <v>1397</v>
@@ -28551,31 +28548,31 @@
         <v>571</v>
       </c>
       <c r="F31" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="G31" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H31" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="I31" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="J31" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="K31" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="L31" t="s">
         <v>649</v>
       </c>
       <c r="M31" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="N31" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -28583,43 +28580,43 @@
         <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C32" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D32" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E32" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="F32" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="G32" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H32" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="I32" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="J32" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="K32" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="L32" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="M32" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="N32" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -28630,40 +28627,40 @@
         <v>1406</v>
       </c>
       <c r="C33" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D33" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E33" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="F33" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="G33" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H33" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="I33" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="J33" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="K33" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="L33" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="M33" t="s">
         <v>1473</v>
       </c>
       <c r="N33" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -28671,7 +28668,7 @@
         <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C34" t="s">
         <v>653</v>
@@ -28680,34 +28677,34 @@
         <v>1422</v>
       </c>
       <c r="E34" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F34" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="G34" t="s">
         <v>1459</v>
       </c>
       <c r="H34" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="I34" t="s">
         <v>636</v>
       </c>
       <c r="J34" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="K34" t="s">
         <v>1439</v>
       </c>
       <c r="L34" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="M34" t="s">
         <v>1445</v>
       </c>
       <c r="N34" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -28718,13 +28715,13 @@
         <v>609</v>
       </c>
       <c r="C35" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D35" t="s">
         <v>583</v>
       </c>
       <c r="E35" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="F35" t="s">
         <v>589</v>
@@ -28739,16 +28736,16 @@
         <v>1402</v>
       </c>
       <c r="J35" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="K35" t="s">
         <v>576</v>
       </c>
       <c r="L35" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="M35" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="N35" t="s">
         <v>1447</v>
@@ -28762,31 +28759,31 @@
         <v>1403</v>
       </c>
       <c r="C36" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D36" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E36" t="s">
         <v>1128</v>
       </c>
       <c r="F36" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="G36" t="s">
         <v>1472</v>
       </c>
       <c r="H36" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="I36" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="J36" t="s">
         <v>659</v>
       </c>
       <c r="K36" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="L36" t="s">
         <v>1389</v>
@@ -28795,7 +28792,7 @@
         <v>659</v>
       </c>
       <c r="N36" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -28803,43 +28800,43 @@
         <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C37" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D37" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E37" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="F37" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G37" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H37" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="I37" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="J37" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="K37" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="L37" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="M37" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="N37" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -28850,22 +28847,22 @@
         <v>1447</v>
       </c>
       <c r="C38" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D38" t="s">
         <v>1120</v>
       </c>
       <c r="E38" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="F38" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="G38" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H38" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="I38" t="s">
         <v>599</v>
@@ -28874,13 +28871,13 @@
         <v>1403</v>
       </c>
       <c r="K38" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="L38" t="s">
         <v>1458</v>
       </c>
       <c r="M38" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="N38" t="s">
         <v>586</v>
@@ -28894,22 +28891,22 @@
         <v>1463</v>
       </c>
       <c r="C39" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D39" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E39" t="s">
         <v>648</v>
       </c>
       <c r="F39" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="G39" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H39" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="I39" t="s">
         <v>567</v>
@@ -28918,7 +28915,7 @@
         <v>571</v>
       </c>
       <c r="K39" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="L39" t="s">
         <v>1417</v>
@@ -28989,43 +28986,43 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C44" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D44" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E44" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F44" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="G44" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H44" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="I44" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="J44" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="K44" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="L44" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="M44" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="N44" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -29033,43 +29030,43 @@
         <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C45" t="s">
         <v>296</v>
       </c>
       <c r="D45" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E45" t="s">
         <v>682</v>
       </c>
       <c r="F45" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="G45" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H45" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="I45" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="J45" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="K45" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="L45" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="M45" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="N45" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -29077,40 +29074,40 @@
         <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C46" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D46" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E46" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="F46" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="G46" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H46" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="I46" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="J46" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="K46" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="L46" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="M46" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="N46" t="s">
         <v>613</v>
@@ -29121,43 +29118,43 @@
         <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C47" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D47" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E47" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="F47" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="G47" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H47" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="I47" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="J47" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="K47" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="L47" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="M47" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="N47" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -29165,43 +29162,43 @@
         <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C48" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D48" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E48" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F48" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="G48" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H48" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I48" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J48" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="K48" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="L48" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="M48" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="N48" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -29209,43 +29206,43 @@
         <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C49" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D49" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E49" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F49" t="s">
         <v>1476</v>
       </c>
       <c r="G49" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H49" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="I49" t="s">
         <v>1359</v>
       </c>
       <c r="J49" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="K49" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="L49" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="M49" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="N49" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -29256,40 +29253,40 @@
         <v>1361</v>
       </c>
       <c r="C50" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D50" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E50" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="F50" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="G50" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H50" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="I50" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="J50" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="K50" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="L50" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="M50" t="s">
         <v>1377</v>
       </c>
       <c r="N50" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -29297,19 +29294,19 @@
         <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C51" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D51" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E51" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F51" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="G51" t="s">
         <v>1424</v>
@@ -29318,22 +29315,22 @@
         <v>1167</v>
       </c>
       <c r="I51" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="J51" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="K51" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="L51" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="M51" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="N51" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -29341,40 +29338,40 @@
         <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C52" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D52" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E52" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F52" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="G52" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H52" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I52" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J52" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="K52" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="L52" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="M52" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -29382,43 +29379,43 @@
         <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C53" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D53" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E53" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F53" t="s">
         <v>1445</v>
       </c>
       <c r="G53" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H53" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="I53" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="J53" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K53" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="L53" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="M53" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="N53" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -29426,43 +29423,43 @@
         <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C54" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D54" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E54" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F54" t="s">
         <v>1462</v>
       </c>
       <c r="G54" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H54" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="I54" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="J54" t="s">
         <v>888</v>
       </c>
       <c r="K54" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="L54" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="M54" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="N54" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -29485,7 +29482,7 @@
         <v>527</v>
       </c>
       <c r="G55" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H55" t="s">
         <v>527</v>
@@ -29524,7 +29521,7 @@
         <v>349</v>
       </c>
       <c r="B59" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -29540,7 +29537,7 @@
         <v>351</v>
       </c>
       <c r="B61" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -29548,7 +29545,7 @@
         <v>352</v>
       </c>
       <c r="B62" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -29638,7 +29635,7 @@
         <v>360</v>
       </c>
       <c r="B76" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -30436,40 +30433,40 @@
         <v>386</v>
       </c>
       <c r="B107" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C107" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D107" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="E107" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="F107" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G107" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H107" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="I107" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="J107" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="K107" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="L107" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="M107" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -30477,7 +30474,7 @@
         <v>387</v>
       </c>
       <c r="D108" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="E108" t="s">
         <v>543</v>
@@ -30488,7 +30485,7 @@
         <v>388</v>
       </c>
       <c r="D109" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -30496,40 +30493,40 @@
         <v>389</v>
       </c>
       <c r="B110" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C110" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D110" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="E110" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="F110" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G110" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H110" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="I110" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="J110" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="K110" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="L110" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="M110" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -30537,40 +30534,40 @@
         <v>390</v>
       </c>
       <c r="B111" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C111" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D111" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="E111" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="F111" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="G111" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="H111" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="I111" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="J111" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="K111" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="L111" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="M111" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -30578,40 +30575,40 @@
         <v>391</v>
       </c>
       <c r="B112" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C112" t="s">
         <v>527</v>
       </c>
       <c r="D112" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E112" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="F112" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G112" t="s">
         <v>1099</v>
       </c>
       <c r="H112" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="I112" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="J112" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="K112" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="L112" t="s">
         <v>1333</v>
       </c>
       <c r="M112" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -30665,40 +30662,40 @@
         <v>433</v>
       </c>
       <c r="B116" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C116" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D116" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E116" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F116" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="G116" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="H116" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="I116" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="J116" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="K116" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="L116" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="M116" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -30727,7 +30724,7 @@
         <v>527</v>
       </c>
       <c r="I117" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="J117" t="s">
         <v>527</v>
@@ -30747,40 +30744,40 @@
         <v>437</v>
       </c>
       <c r="B118" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C118" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D118" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="E118" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F118" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G118" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="H118" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="I118" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="J118" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="K118" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="L118" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="M118" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -30788,40 +30785,40 @@
         <v>438</v>
       </c>
       <c r="B119" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C119" t="s">
         <v>1821</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>1822</v>
       </c>
-      <c r="D119" t="s">
-        <v>1823</v>
-      </c>
       <c r="E119" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F119" t="s">
         <v>1826</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>1827</v>
       </c>
-      <c r="G119" t="s">
-        <v>1828</v>
-      </c>
       <c r="H119" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="I119" t="s">
+        <v>1832</v>
+      </c>
+      <c r="J119" t="s">
         <v>1833</v>
       </c>
-      <c r="J119" t="s">
-        <v>1834</v>
-      </c>
       <c r="K119" t="s">
+        <v>1835</v>
+      </c>
+      <c r="L119" t="s">
         <v>1836</v>
       </c>
-      <c r="L119" t="s">
+      <c r="M119" t="s">
         <v>1837</v>
-      </c>
-      <c r="M119" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -30869,34 +30866,34 @@
         <v>433</v>
       </c>
       <c r="B123" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C123" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D123" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E123" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="F123" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G123" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="H123" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="I123" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="J123" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="K123" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -30904,7 +30901,7 @@
         <v>435</v>
       </c>
       <c r="B124" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C124" t="s">
         <v>733</v>
@@ -30939,34 +30936,34 @@
         <v>437</v>
       </c>
       <c r="B125" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C125" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D125" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E125" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="F125" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G125" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H125" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="I125" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="J125" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="K125" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -30974,34 +30971,34 @@
         <v>438</v>
       </c>
       <c r="B126" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="C126" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D126" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E126" t="s">
         <v>1846</v>
       </c>
-      <c r="E126" t="s">
-        <v>1847</v>
-      </c>
       <c r="F126" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G126" t="s">
         <v>1850</v>
       </c>
-      <c r="G126" t="s">
-        <v>1851</v>
-      </c>
       <c r="H126" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="I126" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="J126" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="K126" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
   </sheetData>
@@ -31022,7 +31019,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -31053,7 +31050,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -31061,7 +31058,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -31069,7 +31066,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -31077,7 +31074,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -31085,7 +31082,7 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -31093,7 +31090,7 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -31101,7 +31098,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -31109,7 +31106,7 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -31132,22 +31129,22 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -31157,12 +31154,12 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -31219,43 +31216,43 @@
         <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C29" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D29" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E29" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="F29" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="G29" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="H29" t="s">
         <v>842</v>
       </c>
       <c r="I29" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="J29" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="K29" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="L29" t="s">
         <v>928</v>
       </c>
       <c r="M29" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N29" t="s">
         <v>1894</v>
-      </c>
-      <c r="N29" t="s">
-        <v>1895</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -31266,31 +31263,31 @@
         <v>1182</v>
       </c>
       <c r="C30" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D30" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E30" t="s">
         <v>1026</v>
       </c>
       <c r="F30" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="G30" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="H30" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="I30" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="J30" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="K30" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="L30" t="s">
         <v>119</v>
@@ -31299,7 +31296,7 @@
         <v>1011</v>
       </c>
       <c r="N30" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -31307,7 +31304,7 @@
         <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C31" t="s">
         <v>893</v>
@@ -31316,10 +31313,10 @@
         <v>826</v>
       </c>
       <c r="E31" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="F31" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="G31" t="s">
         <v>133</v>
@@ -31539,7 +31536,7 @@
         <v>192</v>
       </c>
       <c r="F36" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="G36" t="s">
         <v>1131</v>
@@ -31639,7 +31636,7 @@
         <v>425</v>
       </c>
       <c r="J38" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="K38" t="s">
         <v>1475</v>
@@ -31659,31 +31656,31 @@
         <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C39" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D39" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E39" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="F39" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="G39" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="H39" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="I39" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="J39" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="K39" t="s">
         <v>1404</v>
@@ -31692,7 +31689,7 @@
         <v>1133</v>
       </c>
       <c r="M39" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="N39" t="s">
         <v>598</v>
@@ -31775,7 +31772,7 @@
         <v>1142</v>
       </c>
       <c r="H44" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="I44" t="s">
         <v>913</v>
@@ -31784,16 +31781,16 @@
         <v>988</v>
       </c>
       <c r="K44" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="L44" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M44" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="N44" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -31816,7 +31813,7 @@
         <v>874</v>
       </c>
       <c r="G45" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H45" t="s">
         <v>979</v>
@@ -31825,19 +31822,19 @@
         <v>1121</v>
       </c>
       <c r="J45" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="K45" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="L45" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="M45" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="N45" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -32098,10 +32095,10 @@
         <v>262</v>
       </c>
       <c r="M51" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N51" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -32115,19 +32112,19 @@
         <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E52" t="s">
         <v>153</v>
       </c>
       <c r="F52" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="G52" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="H52" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="I52" t="s">
         <v>266</v>
@@ -32165,7 +32162,7 @@
         <v>818</v>
       </c>
       <c r="G53" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="H53" t="s">
         <v>155</v>
@@ -32183,10 +32180,10 @@
         <v>341</v>
       </c>
       <c r="M53" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="N53" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -32200,7 +32197,7 @@
         <v>615</v>
       </c>
       <c r="D54" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="E54" t="s">
         <v>549</v>
@@ -32209,28 +32206,28 @@
         <v>548</v>
       </c>
       <c r="G54" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="H54" t="s">
+        <v>1904</v>
+      </c>
+      <c r="I54" t="s">
         <v>1905</v>
       </c>
-      <c r="I54" t="s">
-        <v>1906</v>
-      </c>
       <c r="J54" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="K54" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="L54" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="M54" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="N54" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -32292,7 +32289,7 @@
         <v>349</v>
       </c>
       <c r="B59" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -32300,7 +32297,7 @@
         <v>350</v>
       </c>
       <c r="B60" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -32308,7 +32305,7 @@
         <v>351</v>
       </c>
       <c r="B61" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -32345,7 +32342,7 @@
         <v>350</v>
       </c>
       <c r="B67" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -32353,7 +32350,7 @@
         <v>351</v>
       </c>
       <c r="B68" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -32361,7 +32358,7 @@
         <v>352</v>
       </c>
       <c r="B69" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -32382,7 +32379,7 @@
         <v>349</v>
       </c>
       <c r="B73" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -32398,7 +32395,7 @@
         <v>351</v>
       </c>
       <c r="B75" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -32406,7 +32403,7 @@
         <v>360</v>
       </c>
       <c r="B76" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -32427,7 +32424,7 @@
         <v>349</v>
       </c>
       <c r="B80" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -33207,7 +33204,7 @@
         <v>1119</v>
       </c>
       <c r="C107" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D107" t="s">
         <v>1016</v>
@@ -33228,7 +33225,7 @@
         <v>967</v>
       </c>
       <c r="J107" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="K107" t="s">
         <v>301</v>
@@ -33286,19 +33283,19 @@
         <v>388</v>
       </c>
       <c r="B109" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="C109" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D109" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="E109" t="s">
         <v>1493</v>
       </c>
       <c r="F109" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G109" t="s">
         <v>873</v>
@@ -33319,7 +33316,7 @@
         <v>407</v>
       </c>
       <c r="M109" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -33327,7 +33324,7 @@
         <v>389</v>
       </c>
       <c r="B110" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="C110" t="s">
         <v>402</v>
@@ -33336,19 +33333,19 @@
         <v>818</v>
       </c>
       <c r="E110" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="F110" t="s">
         <v>405</v>
       </c>
       <c r="G110" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="H110" t="s">
         <v>77</v>
       </c>
       <c r="I110" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="J110" t="s">
         <v>872</v>
@@ -33368,16 +33365,16 @@
         <v>390</v>
       </c>
       <c r="B111" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="C111" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D111" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="E111" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F111" t="s">
         <v>993</v>
@@ -33424,10 +33421,10 @@
         <v>336</v>
       </c>
       <c r="G112" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="H112" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="I112" t="s">
         <v>962</v>
@@ -33436,7 +33433,7 @@
         <v>125</v>
       </c>
       <c r="K112" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="L112" t="s">
         <v>266</v>
@@ -33488,7 +33485,7 @@
         <v>62</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -33496,40 +33493,40 @@
         <v>433</v>
       </c>
       <c r="B116" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C116" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D116" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="E116" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="F116" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="G116" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="H116" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="I116" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="J116" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="K116" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="L116" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="M116" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -33537,40 +33534,40 @@
         <v>434</v>
       </c>
       <c r="B117" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="C117" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D117" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E117" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F117" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="G117" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="H117" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="I117" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="J117" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="K117" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="L117" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="M117" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -33602,16 +33599,16 @@
         <v>527</v>
       </c>
       <c r="J118" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="K118" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="L118" t="s">
         <v>442</v>
       </c>
       <c r="M118" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -33619,40 +33616,40 @@
         <v>437</v>
       </c>
       <c r="B119" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C119" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D119" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E119" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="F119" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="G119" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H119" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I119" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="J119" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="K119" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="L119" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="M119" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -33660,40 +33657,40 @@
         <v>438</v>
       </c>
       <c r="B120" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C120" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D120" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E120" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F120" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="G120" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="H120" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="I120" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J120" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="K120" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="L120" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="M120" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -33733,7 +33730,7 @@
         <v>60</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -33741,34 +33738,34 @@
         <v>433</v>
       </c>
       <c r="B124" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C124" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D124" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E124" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F124" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G124" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="H124" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="I124" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="J124" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="K124" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -33794,16 +33791,16 @@
         <v>721</v>
       </c>
       <c r="H125" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="I125" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="J125" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="K125" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -33835,10 +33832,10 @@
         <v>527</v>
       </c>
       <c r="J126" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="K126" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -33881,34 +33878,34 @@
         <v>437</v>
       </c>
       <c r="B128" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C128" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D128" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E128" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="F128" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G128" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="H128" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="I128" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="J128" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="K128" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -33916,34 +33913,34 @@
         <v>438</v>
       </c>
       <c r="B129" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C129" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D129" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E129" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F129" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G129" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="H129" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="I129" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="J129" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="K129" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
   </sheetData>
@@ -33964,7 +33961,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -33995,7 +33992,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -34003,7 +34000,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -34011,7 +34008,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -34019,7 +34016,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -34027,7 +34024,7 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -34035,7 +34032,7 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -34043,7 +34040,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -34051,7 +34048,7 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -34074,17 +34071,17 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -34141,43 +34138,43 @@
         <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C25" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D25" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="E25" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="F25" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="G25" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="H25" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="I25" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="J25" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="K25" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="L25" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="M25" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="N25" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -34185,43 +34182,43 @@
         <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C26" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D26" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="E26" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="F26" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="G26" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="H26" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="I26" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="J26" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="K26" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="L26" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="M26" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="N26" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -34229,43 +34226,43 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C27" t="s">
         <v>586</v>
       </c>
       <c r="D27" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E27" t="s">
         <v>599</v>
       </c>
       <c r="F27" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="G27" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H27" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="I27" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="J27" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="K27" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="L27" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="M27" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="N27" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -34276,40 +34273,40 @@
         <v>1308</v>
       </c>
       <c r="C28" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D28" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E28" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="F28" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="G28" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="H28" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="I28" t="s">
         <v>1293</v>
       </c>
       <c r="J28" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="K28" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="L28" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="M28" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="N28" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -34317,7 +34314,7 @@
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C29" t="s">
         <v>539</v>
@@ -34364,7 +34361,7 @@
         <v>558</v>
       </c>
       <c r="C30" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D30" t="s">
         <v>559</v>
@@ -34394,7 +34391,7 @@
         <v>563</v>
       </c>
       <c r="M30" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="N30" t="s">
         <v>627</v>
@@ -34449,43 +34446,43 @@
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C32" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D32" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="E32" t="s">
         <v>1413</v>
       </c>
       <c r="F32" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="G32" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="H32" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="I32" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="J32" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="K32" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="L32" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="M32" t="s">
         <v>1361</v>
       </c>
       <c r="N32" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -34493,43 +34490,43 @@
         <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C33" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D33" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="E33" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F33" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="G33" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="H33" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="I33" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="J33" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="K33" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="L33" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="M33" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="N33" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -34537,10 +34534,10 @@
         <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C34" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D34" t="s">
         <v>588</v>
@@ -34552,28 +34549,28 @@
         <v>1397</v>
       </c>
       <c r="G34" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="H34" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="I34" t="s">
         <v>1473</v>
       </c>
       <c r="J34" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="K34" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="L34" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="M34" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="N34" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -34608,7 +34605,7 @@
         <v>575</v>
       </c>
       <c r="K35" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="L35" t="s">
         <v>1394</v>
@@ -34635,10 +34632,10 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>2095</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>2096</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>606</v>
@@ -34700,7 +34697,7 @@
         <v>1138</v>
       </c>
       <c r="I40" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="J40" t="s">
         <v>885</v>
@@ -34712,7 +34709,7 @@
         <v>848</v>
       </c>
       <c r="M40" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="N40" t="s">
         <v>988</v>
@@ -34744,10 +34741,10 @@
         <v>1480</v>
       </c>
       <c r="I41" t="s">
+        <v>2099</v>
+      </c>
+      <c r="J41" t="s">
         <v>2100</v>
-      </c>
-      <c r="J41" t="s">
-        <v>2101</v>
       </c>
       <c r="K41" t="s">
         <v>409</v>
@@ -34756,10 +34753,10 @@
         <v>399</v>
       </c>
       <c r="M41" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="N41" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -34791,7 +34788,7 @@
         <v>416</v>
       </c>
       <c r="J42" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="K42" t="s">
         <v>866</v>
@@ -35031,7 +35028,7 @@
         <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C48" t="s">
         <v>136</v>
@@ -35040,7 +35037,7 @@
         <v>266</v>
       </c>
       <c r="E48" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F48" t="s">
         <v>266</v>
@@ -35131,28 +35128,28 @@
         <v>1463</v>
       </c>
       <c r="G50" t="s">
+        <v>2096</v>
+      </c>
+      <c r="H50" t="s">
         <v>2097</v>
-      </c>
-      <c r="H50" t="s">
-        <v>2098</v>
       </c>
       <c r="I50" t="s">
         <v>653</v>
       </c>
       <c r="J50" t="s">
+        <v>2101</v>
+      </c>
+      <c r="K50" t="s">
         <v>2102</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>2103</v>
       </c>
-      <c r="L50" t="s">
-        <v>2104</v>
-      </c>
       <c r="M50" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="N50" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -35275,7 +35272,7 @@
         <v>351</v>
       </c>
       <c r="B64" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -35312,7 +35309,7 @@
         <v>350</v>
       </c>
       <c r="B70" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -35320,7 +35317,7 @@
         <v>351</v>
       </c>
       <c r="B71" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -35328,7 +35325,7 @@
         <v>360</v>
       </c>
       <c r="B72" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -35386,10 +35383,10 @@
         <v>49</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>2095</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>2096</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>606</v>
@@ -35875,10 +35872,10 @@
         <v>49</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>2095</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>2096</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>606</v>
@@ -36085,10 +36082,10 @@
         <v>49</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>2095</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>2096</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>606</v>
@@ -36261,7 +36258,7 @@
         <v>1181</v>
       </c>
       <c r="F106" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="G106" t="s">
         <v>874</v>
@@ -36302,7 +36299,7 @@
         <v>832</v>
       </c>
       <c r="F107" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="G107" t="s">
         <v>874</v>
@@ -36415,40 +36412,40 @@
         <v>433</v>
       </c>
       <c r="B112" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C112" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D112" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="E112" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="F112" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="G112" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="H112" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="I112" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="J112" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="K112" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="L112" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="M112" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -36480,7 +36477,7 @@
         <v>527</v>
       </c>
       <c r="J113" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="K113" t="s">
         <v>754</v>
@@ -36489,7 +36486,7 @@
         <v>753</v>
       </c>
       <c r="M113" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -36497,40 +36494,40 @@
         <v>437</v>
       </c>
       <c r="B114" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C114" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D114" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E114" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="F114" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="G114" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="H114" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="I114" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="J114" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="K114" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="L114" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="M114" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -36538,40 +36535,40 @@
         <v>438</v>
       </c>
       <c r="B115" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C115" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="D115" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E115" t="s">
         <v>2119</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>2120</v>
       </c>
-      <c r="F115" t="s">
-        <v>2121</v>
-      </c>
       <c r="G115" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="H115" t="s">
+        <v>2125</v>
+      </c>
+      <c r="I115" t="s">
         <v>2126</v>
       </c>
-      <c r="I115" t="s">
-        <v>2127</v>
-      </c>
       <c r="J115" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="K115" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="L115" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="M115" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -36613,28 +36610,28 @@
         <v>433</v>
       </c>
       <c r="B119" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C119" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D119" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="E119" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="F119" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="G119" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="H119" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="I119" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -36663,7 +36660,7 @@
         <v>754</v>
       </c>
       <c r="I120" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -36671,28 +36668,28 @@
         <v>437</v>
       </c>
       <c r="B121" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C121" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="D121" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E121" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="F121" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="G121" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="H121" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="I121" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -36709,19 +36706,19 @@
         <v>1022</v>
       </c>
       <c r="E122" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="F122" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="G122" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="H122" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="I122" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
   </sheetData>
